--- a/Newfolder/dsr/data/form_data_updated_20250729_015139.xlsx
+++ b/Newfolder/dsr/data/form_data_updated_20250729_015139.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54637098-778C-484E-8703-9DAD463B2135}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{856E752F-95A4-49E2-A4F4-EF277D043EC8}"/>
   <bookViews>
-    <workbookView xWindow="28455" yWindow="345" windowWidth="21960" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="690" windowWidth="29880" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Email Address</t>
   </si>
@@ -82,12 +82,6 @@
     <t>ethan.mitchell@mailinator.com</t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>ruba</t>
-  </si>
-  <si>
     <t>11/8/2004</t>
   </si>
   <si>
@@ -124,27 +118,18 @@
     <t>kiran</t>
   </si>
   <si>
-    <t>kanna</t>
-  </si>
-  <si>
     <t>request to copy of my data</t>
   </si>
   <si>
     <t>kayal</t>
   </si>
   <si>
-    <t>gee</t>
-  </si>
-  <si>
     <t>Opt out of search</t>
   </si>
   <si>
     <t>amur</t>
   </si>
   <si>
-    <t>radha</t>
-  </si>
-  <si>
     <t>Remove my parent's cc information</t>
   </si>
   <si>
@@ -158,6 +143,24 @@
   </si>
   <si>
     <t>Educator data (if any)</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>deletedsr</t>
+  </si>
+  <si>
+    <t>infodsr</t>
+  </si>
+  <si>
+    <t>optdsr</t>
+  </si>
+  <si>
+    <t>parentccdsr</t>
+  </si>
+  <si>
+    <t>closedsr</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,49 +617,49 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -664,43 +667,43 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -708,43 +711,43 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -752,43 +755,43 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -796,49 +799,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
